--- a/Data/Number of show organizers in the regions.xlsx
+++ b/Data/Number of show organizers in the regions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/Cleaned data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8E11E-0054-3141-BF37-2785809B428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941BF16-1BC5-AE42-9D35-CDCCC10951EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attività cinematografica" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">REGIONE </t>
-  </si>
   <si>
     <t>Abruzzo</t>
   </si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Veneto</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -534,15 +534,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B475BA-D90C-4C8E-A487-01C54A5197B9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>115</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>219</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>162</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>370</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>66</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>144</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>118</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>36</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>131</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>177</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>56</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>175</v>
@@ -973,14 +973,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>218</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>83</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>133</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>442</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1093</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>251</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>747</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>239</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1716</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>574</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>823</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>488</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>183</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>581</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>870</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>340</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>268</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>46</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>838</v>
@@ -1408,14 +1408,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>133</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>88</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>334</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>764</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>179</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>409</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>189</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1115</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>389</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>710</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>383</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>103</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>313</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>489</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>269</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>193</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>36</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>505</v>
@@ -1842,13 +1842,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDBF2B5-D2E1-45CC-8422-6DA46EE2083A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -1868,7 +1870,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>236</v>
@@ -1888,7 +1890,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>61</v>
@@ -1908,7 +1910,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>69</v>
@@ -1928,7 +1930,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>208</v>
@@ -1948,7 +1950,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>996</v>
@@ -1968,7 +1970,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>333</v>
@@ -1988,7 +1990,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>339</v>
@@ -2008,7 +2010,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>199</v>
@@ -2028,7 +2030,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2364</v>
@@ -2048,7 +2050,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>543</v>
@@ -2068,7 +2070,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>38</v>
@@ -2088,7 +2090,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>879</v>
@@ -2108,7 +2110,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>186</v>
@@ -2128,7 +2130,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>134</v>
@@ -2148,7 +2150,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>183</v>
@@ -2168,7 +2170,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1169</v>
@@ -2188,7 +2190,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>275</v>
@@ -2208,7 +2210,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>313</v>
@@ -2228,7 +2230,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2248,7 +2250,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>936</v>
@@ -2276,14 +2278,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -2303,7 +2305,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1563</v>
@@ -2323,7 +2325,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>507</v>
@@ -2343,7 +2345,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>523</v>
@@ -2363,7 +2365,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3432</v>
@@ -2383,7 +2385,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5459</v>
@@ -2403,7 +2405,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1707</v>
@@ -2423,7 +2425,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3228</v>
@@ -2443,7 +2445,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2051</v>
@@ -2463,7 +2465,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>7988</v>
@@ -2483,7 +2485,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2550</v>
@@ -2503,7 +2505,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>359</v>
@@ -2523,7 +2525,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>4882</v>
@@ -2543,7 +2545,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2681</v>
@@ -2563,7 +2565,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>993</v>
@@ -2583,7 +2585,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3625</v>
@@ -2603,7 +2605,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>4064</v>
@@ -2623,7 +2625,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1479</v>
@@ -2643,7 +2645,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1286</v>
@@ -2663,7 +2665,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>327</v>
@@ -2683,7 +2685,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>4235</v>
@@ -2711,14 +2713,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -2738,7 +2740,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -2758,7 +2760,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -2778,7 +2780,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -2798,7 +2800,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -2818,7 +2820,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>45</v>
@@ -2838,7 +2840,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2858,7 +2860,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>34</v>
@@ -2878,7 +2880,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2898,7 +2900,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -2918,7 +2920,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -2938,7 +2940,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2958,7 +2960,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -2978,7 +2980,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -2998,7 +3000,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -3018,7 +3020,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3038,7 +3040,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>35</v>
@@ -3058,7 +3060,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3069,7 +3071,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -3089,7 +3091,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3106,7 +3108,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>29</v>
@@ -3134,14 +3136,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -3161,7 +3163,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -3181,7 +3183,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -3201,7 +3203,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -3221,7 +3223,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>76</v>
@@ -3241,7 +3243,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>143</v>
@@ -3261,7 +3263,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -3281,7 +3283,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>114</v>
@@ -3301,7 +3303,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -3321,7 +3323,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>257</v>
@@ -3341,7 +3343,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>69</v>
@@ -3361,7 +3363,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3378,7 +3380,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>98</v>
@@ -3398,7 +3400,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>36</v>
@@ -3418,7 +3420,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>16</v>
@@ -3438,7 +3440,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>61</v>
@@ -3458,7 +3460,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>156</v>
@@ -3478,7 +3480,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>31</v>
@@ -3498,7 +3500,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>42</v>
@@ -3518,7 +3520,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -3538,7 +3540,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>153</v>
@@ -3565,15 +3567,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A08983-0456-48B3-8D76-3E1C12EC32E3}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -3593,7 +3595,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2373</v>
@@ -3613,7 +3615,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>736</v>
@@ -3633,7 +3635,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>837</v>
@@ -3653,7 +3655,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4504</v>
@@ -3673,7 +3675,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>8768</v>
@@ -3693,7 +3695,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2926</v>
@@ -3713,7 +3715,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>4868</v>
@@ -3733,7 +3735,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2782</v>
@@ -3753,7 +3755,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>14298</v>
@@ -3773,7 +3775,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>4414</v>
@@ -3793,7 +3795,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>479</v>
@@ -3813,7 +3815,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>7639</v>
@@ -3833,7 +3835,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3694</v>
@@ -3853,7 +3855,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1408</v>
@@ -3873,7 +3875,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>4621</v>
@@ -3893,7 +3895,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>6844</v>
@@ -3913,7 +3915,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>3085</v>
@@ -3933,7 +3935,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2223</v>
@@ -3953,7 +3955,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>427</v>
@@ -3973,7 +3975,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>7560</v>
